--- a/LoginTestCasesandData.xlsx
+++ b/LoginTestCasesandData.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E01E80E-5DB6-4F7B-897D-A864AB00011C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1E33BC6-1BEC-483E-A03F-94CF42E86408}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2115" yWindow="2115" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="validLoginTest" sheetId="1" r:id="rId1"/>
@@ -583,7 +583,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
@@ -742,8 +742,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E88B823-AB0D-4107-B578-734CE6DE5A43}">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/LoginTestCasesandData.xlsx
+++ b/LoginTestCasesandData.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1E33BC6-1BEC-483E-A03F-94CF42E86408}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14DAABF8-99E2-4CBD-B331-72354EC9A776}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="validLoginTest" sheetId="1" r:id="rId1"/>
@@ -217,7 +217,6 @@
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Objects"/>
-      <sheetName val="Sheet1"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
@@ -254,7 +253,6 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -583,8 +581,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -742,7 +740,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E88B823-AB0D-4107-B578-734CE6DE5A43}">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>

--- a/LoginTestCasesandData.xlsx
+++ b/LoginTestCasesandData.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14DAABF8-99E2-4CBD-B331-72354EC9A776}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0350B345-91F3-419C-AAA8-B848A5FEC1ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="11295" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="validLoginTest" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="19">
   <si>
     <t>Keyword</t>
   </si>
@@ -44,12 +44,6 @@
     <t>ObjectType</t>
   </si>
   <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>password</t>
-  </si>
-  <si>
     <t>CLICK</t>
   </si>
   <si>
@@ -71,19 +65,10 @@
     <t>Admin123</t>
   </si>
   <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>loginButton</t>
-  </si>
-  <si>
     <t>Inpatient Ward</t>
   </si>
   <si>
     <t>CLICKLISTHOMEPAGE</t>
-  </si>
-  <si>
-    <t>username</t>
   </si>
   <si>
     <t>Iteration1</t>
@@ -581,8 +566,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -597,7 +582,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -609,15 +594,15 @@
         <v>3</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -639,16 +624,16 @@
         <v>name</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C4" s="2" t="str">
         <f>[1]Objects!$B$3</f>
@@ -675,30 +660,30 @@
         <v>name</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="2" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C7" s="2" t="str">
         <f>[1]Objects!$B$4</f>
@@ -714,7 +699,7 @@
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="6" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C8" s="2" t="str">
         <f>[1]Objects!$B$5</f>
@@ -725,10 +710,10 @@
         <v>id</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -740,8 +725,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E88B823-AB0D-4107-B578-734CE6DE5A43}">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -755,7 +740,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>0</v>
@@ -767,12 +752,12 @@
         <v>3</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -784,26 +769,30 @@
       <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>4</v>
+      <c r="C3" s="2" t="str">
+        <f>[1]Objects!$B$2</f>
+        <v>username</v>
+      </c>
+      <c r="D3" s="2" t="str">
+        <f>[1]Objects!$C$2</f>
+        <v>name</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="2" t="s">
         <v>4</v>
+      </c>
+      <c r="C4" s="2" t="str">
+        <f>[1]Objects!$B$3</f>
+        <v>password</v>
+      </c>
+      <c r="D4" s="2" t="str">
+        <f>[1]Objects!$C$3</f>
+        <v>name</v>
       </c>
       <c r="E4" s="2"/>
     </row>
@@ -812,53 +801,53 @@
       <c r="B5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>4</v>
+      <c r="C5" s="2" t="str">
+        <f>[1]Objects!$B$3</f>
+        <v>password</v>
+      </c>
+      <c r="D5" s="2" t="str">
+        <f>[1]Objects!$C$3</f>
+        <v>name</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>4</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
       <c r="E6" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>13</v>
+        <v>4</v>
+      </c>
+      <c r="C7" s="2" t="str">
+        <f>[1]Objects!$B$4</f>
+        <v>loginButton</v>
+      </c>
+      <c r="D7" s="2" t="str">
+        <f>[1]Objects!$C$4</f>
+        <v>id</v>
       </c>
       <c r="E7" s="2"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="6" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/LoginTestCasesandData.xlsx
+++ b/LoginTestCasesandData.xlsx
@@ -1,18 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0350B345-91F3-419C-AAA8-B848A5FEC1ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4FC0986-4A18-4EBC-91C7-15829FF651CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="11295" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="validLoginTest" sheetId="1" r:id="rId1"/>
     <sheet name="invalidLoginTest" sheetId="2" r:id="rId2"/>
+    <sheet name="validLoginScreenshotTest" sheetId="3" r:id="rId3"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId3"/>
+    <externalReference r:id="rId4"/>
   </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="20">
   <si>
     <t>Keyword</t>
   </si>
@@ -87,6 +88,9 @@
   </si>
   <si>
     <t>VALIDATEELEMENTTEXT</t>
+  </si>
+  <si>
+    <t>GETSCREENSHOTELEMENT</t>
   </si>
 </sst>
 </file>
@@ -567,7 +571,7 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -725,7 +729,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E88B823-AB0D-4107-B578-734CE6DE5A43}">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
@@ -853,4 +857,159 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92BE034E-118E-4521-811C-6F9CFFB173A4}">
+  <dimension ref="A1:E9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:F1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="2" t="str">
+        <f>[1]Objects!$B$2</f>
+        <v>username</v>
+      </c>
+      <c r="D3" s="2" t="str">
+        <f>[1]Objects!$C$2</f>
+        <v>name</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="2" t="str">
+        <f>[1]Objects!$B$3</f>
+        <v>password</v>
+      </c>
+      <c r="D4" s="2" t="str">
+        <f>[1]Objects!$C$3</f>
+        <v>name</v>
+      </c>
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="2" t="str">
+        <f>[1]Objects!$B$3</f>
+        <v>password</v>
+      </c>
+      <c r="D5" s="2" t="str">
+        <f>[1]Objects!$C$3</f>
+        <v>name</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="2" t="str">
+        <f>[1]Objects!$B$4</f>
+        <v>loginButton</v>
+      </c>
+      <c r="D7" s="2" t="str">
+        <f>[1]Objects!$C$4</f>
+        <v>id</v>
+      </c>
+      <c r="E7" s="2"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="2" t="str">
+        <f>[1]Objects!$B$4</f>
+        <v>loginButton</v>
+      </c>
+      <c r="D8" s="2" t="str">
+        <f>[1]Objects!$C$4</f>
+        <v>id</v>
+      </c>
+      <c r="E8" s="2"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="2"/>
+      <c r="B9" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="2" t="str">
+        <f>[1]Objects!$B$5</f>
+        <v>selected-location</v>
+      </c>
+      <c r="D9" s="2" t="str">
+        <f>[1]Objects!$C$5</f>
+        <v>id</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/LoginTestCasesandData.xlsx
+++ b/LoginTestCasesandData.xlsx
@@ -1,19 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4FC0986-4A18-4EBC-91C7-15829FF651CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10828EE9-1F49-4BA7-AAB6-14E9DB02A29F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="validLoginTest" sheetId="1" r:id="rId1"/>
     <sheet name="invalidLoginTest" sheetId="2" r:id="rId2"/>
     <sheet name="validLoginScreenshotTest" sheetId="3" r:id="rId3"/>
+    <sheet name="softAssertion" sheetId="4" r:id="rId4"/>
+    <sheet name="softAssertionAll" sheetId="5" r:id="rId5"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId4"/>
+    <externalReference r:id="rId6"/>
   </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="32">
   <si>
     <t>Keyword</t>
   </si>
@@ -91,6 +93,42 @@
   </si>
   <si>
     <t>GETSCREENSHOTELEMENT</t>
+  </si>
+  <si>
+    <t>Assertions</t>
+  </si>
+  <si>
+    <t>SOFTVERIFYTITLE</t>
+  </si>
+  <si>
+    <t>Wrong Title</t>
+  </si>
+  <si>
+    <t>SOFTISELEMENTPRESENT</t>
+  </si>
+  <si>
+    <t>SOFTVALIDATETEXT</t>
+  </si>
+  <si>
+    <t>QWERTYU</t>
+  </si>
+  <si>
+    <t>SOFTVALIDATEELEMENTTEXT</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>btnK</t>
+  </si>
+  <si>
+    <t>ABCD Search</t>
+  </si>
+  <si>
+    <t>Google</t>
+  </si>
+  <si>
+    <t>SOFTVALIDATEALL</t>
   </si>
 </sst>
 </file>
@@ -863,8 +901,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92BE034E-118E-4521-811C-6F9CFFB173A4}">
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F1048576"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1012,4 +1050,213 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BC535EA-BD72-46BC-A1BD-FC532D80C5FD}">
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:E6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.7109375" customWidth="1"/>
+    <col min="2" max="2" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="2" t="str">
+        <f>[1]Objects!$B$3</f>
+        <v>password</v>
+      </c>
+      <c r="D4" s="2" t="str">
+        <f>[1]Objects!$C$3</f>
+        <v>name</v>
+      </c>
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4925E46C-769A-4C98-946E-C505519CEC04}">
+  <dimension ref="A1:E7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="2" t="str">
+        <f>[1]Objects!$B$3</f>
+        <v>password</v>
+      </c>
+      <c r="D4" s="2" t="str">
+        <f>[1]Objects!$C$3</f>
+        <v>name</v>
+      </c>
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>